--- a/Periode 12 Kerntaak 1,2,3/KT2/KT2.1/KT2.1.2 Genormaliseerd databaseontwerp/Genormaliseerd databaseontwerp v1.0.0.xlsx
+++ b/Periode 12 Kerntaak 1,2,3/KT2/KT2.1/KT2.1.2 Genormaliseerd databaseontwerp/Genormaliseerd databaseontwerp v1.0.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{19028E66-17A1-4A78-949D-DCE41105C161}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0e Normaalvorm" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="58">
   <si>
     <t>Gebruikersnaam</t>
   </si>
@@ -184,12 +185,21 @@
   </si>
   <si>
     <t>Staan in TTR.MDCS database</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>•••Klant_Id</t>
+  </si>
+  <si>
+    <t>•••Contactpersoon_Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -278,6 +288,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -315,7 +327,7 @@
         <xdr:cNvPr id="2" name="Rechte verbindingslijn met pijl 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -368,7 +380,7 @@
         <xdr:cNvPr id="3" name="Rechte verbindingslijn 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +430,7 @@
         <xdr:cNvPr id="4" name="Rechte verbindingslijn met pijl 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -471,7 +483,7 @@
         <xdr:cNvPr id="5" name="Rechte verbindingslijn met pijl 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +536,7 @@
         <xdr:cNvPr id="10" name="Rechte verbindingslijn met pijl 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,7 +589,7 @@
         <xdr:cNvPr id="11" name="Rechte verbindingslijn met pijl 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -630,7 +642,7 @@
         <xdr:cNvPr id="12" name="Rechte verbindingslijn met pijl 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,7 +700,7 @@
         <xdr:cNvPr id="19" name="Rechte verbindingslijn met pijl 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -741,7 +753,7 @@
         <xdr:cNvPr id="20" name="Rechte verbindingslijn met pijl 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -794,7 +806,7 @@
         <xdr:cNvPr id="21" name="Rechte verbindingslijn met pijl 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,7 +859,7 @@
         <xdr:cNvPr id="25" name="Rechte verbindingslijn met pijl 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -900,7 +912,7 @@
         <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -953,7 +965,7 @@
         <xdr:cNvPr id="27" name="Rechte verbindingslijn met pijl 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -994,7 +1006,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1032,7 +1044,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1067,6 +1079,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1102,9 +1131,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1277,16 +1323,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1316,112 +1362,127 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1431,16 +1492,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1486,7 +1547,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1494,7 +1555,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1502,7 +1563,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1510,7 +1571,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1518,7 +1579,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1526,7 +1587,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1534,7 +1595,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1542,7 +1603,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -1550,17 +1611,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1569,11 +1645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1710,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1642,7 +1718,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1650,7 +1726,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1658,7 +1734,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -1666,7 +1742,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1674,7 +1750,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1682,7 +1758,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1690,22 +1766,37 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1714,11 +1805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1818,7 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,6 +1907,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -1842,17 +1936,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,9 +1972,11 @@
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
@@ -1880,7 +1987,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -1891,7 +1998,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1900,7 +2007,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1913,12 +2020,14 @@
       <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="10"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1927,7 +2036,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1936,11 +2045,11 @@
       <c r="F6" s="7"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1959,8 +2068,10 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1979,8 +2090,10 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1995,8 +2108,10 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -2033,8 +2148,10 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2049,8 +2166,10 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2065,8 +2184,10 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2081,8 +2202,10 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -2101,8 +2224,10 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2117,8 +2242,10 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -2157,8 +2284,14 @@
       <c r="O17" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2173,8 +2306,10 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="10"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2189,8 +2324,10 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2205,22 +2342,25 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
